--- a/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="547">
   <si>
     <t>Property</t>
   </si>
@@ -637,7 +637,7 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_SimpleObservationCategory_VS</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:coding.system}
 </t>
   </si>
   <si>
@@ -664,6 +664,250 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>Observation.category:simpleObservation.id</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_SimpleObservationCategory_CS</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category:simpleObservation.text</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.category:vitalSignCategory</t>
   </si>
   <si>
@@ -674,6 +918,42 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationVitalSignsCategory_VS</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.id</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.coding.system</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ObservationVitalSignsCategory_CS</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:vitalSignCategory.text</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -1197,29 +1477,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1812,7 +2070,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1821,7 +2079,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.2578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1849,7 +2107,7 @@
     <col min="26" max="26" width="65.90625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3799,21 +4057,19 @@
         <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C17" t="s" s="2">
         <v>206</v>
       </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H17" t="s" s="2">
         <v>83</v>
       </c>
@@ -3824,20 +4080,16 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>83</v>
       </c>
@@ -3861,11 +4113,13 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
@@ -3883,19 +4137,19 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>83</v>
@@ -3907,10 +4161,10 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -3918,21 +4172,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>83</v>
@@ -3941,23 +4195,21 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>83</v>
       </c>
@@ -3981,67 +4233,69 @@
         <v>83</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AC18" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>221</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4049,10 +4303,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>83</v>
@@ -4064,19 +4318,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4125,13 +4379,13 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>83</v>
@@ -4140,19 +4394,19 @@
         <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>228</v>
+        <v>83</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
@@ -4160,10 +4414,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4174,7 +4428,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>83</v>
@@ -4183,20 +4437,18 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4245,19 +4497,19 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>83</v>
@@ -4266,13 +4518,13 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
@@ -4280,21 +4532,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4303,23 +4555,21 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>241</v>
+        <v>140</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>83</v>
       </c>
@@ -4355,46 +4605,46 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>83</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4402,18 +4652,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>93</v>
@@ -4428,26 +4678,26 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>83</v>
@@ -4489,7 +4739,7 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4504,19 +4754,19 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4524,10 +4774,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4550,16 +4800,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4609,7 +4859,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4630,13 +4880,13 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4644,10 +4894,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4658,7 +4908,7 @@
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>83</v>
@@ -4670,19 +4920,17 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>269</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4731,13 +4979,13 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>83</v>
@@ -4746,19 +4994,19 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4766,10 +5014,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4792,19 +5040,17 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4853,7 +5099,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4862,7 +5108,7 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>284</v>
+        <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>105</v>
@@ -4871,27 +5117,27 @@
         <v>83</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>288</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4911,22 +5157,22 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -4951,13 +5197,13 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>295</v>
+        <v>83</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -4975,7 +5221,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4984,7 +5230,7 @@
         <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>105</v>
@@ -4996,10 +5242,10 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5010,21 +5256,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>83</v>
@@ -5033,22 +5279,22 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5073,13 +5319,13 @@
         <v>83</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>306</v>
+        <v>83</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>83</v>
@@ -5097,13 +5343,13 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
@@ -5115,35 +5361,37 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>310</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
@@ -5158,19 +5406,19 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5195,13 +5443,11 @@
         <v>83</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5219,7 +5465,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>311</v>
+        <v>190</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5240,13 +5486,13 @@
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>318</v>
+        <v>200</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5254,10 +5500,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5280,17 +5526,15 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5315,13 +5559,13 @@
         <v>83</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>83</v>
@@ -5339,7 +5583,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5351,44 +5595,44 @@
         <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>328</v>
+        <v>211</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>329</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>83</v>
@@ -5400,20 +5644,18 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>83</v>
       </c>
@@ -5437,43 +5679,43 @@
         <v>83</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>335</v>
+        <v>83</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>330</v>
+        <v>217</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
@@ -5482,10 +5724,10 @@
         <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>336</v>
+        <v>83</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>337</v>
+        <v>211</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5496,10 +5738,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5510,7 +5752,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>83</v>
@@ -5519,21 +5761,23 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>341</v>
+        <v>222</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5581,13 +5825,13 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>83</v>
@@ -5599,27 +5843,27 @@
         <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>344</v>
+        <v>226</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>345</v>
+        <v>227</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>346</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5642,17 +5886,15 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>348</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>349</v>
+        <v>208</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5701,7 +5943,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>347</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5713,37 +5955,37 @@
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>352</v>
+        <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>354</v>
+        <v>211</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>355</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>356</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5762,20 +6004,18 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>357</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>358</v>
+        <v>140</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>359</v>
+        <v>214</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>83</v>
       </c>
@@ -5811,19 +6051,19 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>356</v>
+        <v>217</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5835,7 +6075,7 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -5844,10 +6084,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>364</v>
+        <v>211</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -5858,10 +6098,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5869,7 +6109,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>93</v>
@@ -5881,25 +6121,29 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>366</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>367</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>83</v>
@@ -5941,7 +6185,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>369</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5953,7 +6197,7 @@
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
@@ -5962,10 +6206,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>370</v>
+        <v>241</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -5976,21 +6220,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>371</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>83</v>
@@ -5999,19 +6243,19 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>372</v>
+        <v>245</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6061,19 +6305,19 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
@@ -6082,10 +6326,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>370</v>
+        <v>249</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6096,45 +6340,43 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>374</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6183,19 +6425,19 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
@@ -6204,10 +6446,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>136</v>
+        <v>257</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6218,10 +6460,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6241,19 +6483,21 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>207</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>382</v>
+        <v>261</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6301,7 +6545,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>379</v>
+        <v>263</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6310,7 +6554,7 @@
         <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6322,10 +6566,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>384</v>
+        <v>264</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6336,10 +6580,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>386</v>
+        <v>267</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6359,19 +6603,23 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>380</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
       </c>
@@ -6419,7 +6667,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>386</v>
+        <v>273</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6428,7 +6676,7 @@
         <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6440,10 +6688,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6454,10 +6702,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6477,22 +6725,22 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>391</v>
+        <v>278</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>392</v>
+        <v>279</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>393</v>
+        <v>280</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>394</v>
+        <v>281</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6517,13 +6765,13 @@
         <v>83</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>83</v>
@@ -6541,7 +6789,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6559,13 +6807,13 @@
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>397</v>
+        <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>283</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6576,21 +6824,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>399</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>83</v>
@@ -6599,22 +6847,22 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>401</v>
+        <v>304</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>403</v>
+        <v>306</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6639,13 +6887,11 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6663,13 +6909,13 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>399</v>
+        <v>301</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>83</v>
@@ -6678,30 +6924,30 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>83</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6709,7 +6955,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>93</v>
@@ -6721,20 +6967,22 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6783,7 +7031,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6798,19 +7046,19 @@
         <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>83</v>
+        <v>321</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>411</v>
+        <v>322</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>83</v>
@@ -6818,10 +7066,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6832,7 +7080,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -6841,18 +7089,20 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
+        <v>326</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>83</v>
@@ -6901,13 +7151,13 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>83</v>
@@ -6922,13 +7172,13 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>384</v>
+        <v>310</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
@@ -6936,21 +7186,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>416</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -6962,18 +7212,20 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>332</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
+        <v>333</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>419</v>
+        <v>334</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
       </c>
@@ -7021,13 +7273,13 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>416</v>
+        <v>330</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>83</v>
@@ -7036,19 +7288,19 @@
         <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7056,21 +7308,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7082,18 +7334,20 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>426</v>
+        <v>345</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
       </c>
@@ -7141,13 +7395,13 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
@@ -7156,19 +7410,19 @@
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>421</v>
+        <v>349</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>428</v>
+        <v>350</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7176,10 +7430,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7190,7 +7444,7 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7202,20 +7456,18 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>430</v>
+        <v>354</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>431</v>
+        <v>355</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7263,13 +7515,13 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
@@ -7284,13 +7536,13 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>435</v>
+        <v>358</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7298,10 +7550,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7312,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7321,19 +7573,23 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7381,34 +7637,34 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7416,21 +7672,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7439,21 +7695,23 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>139</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>140</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7501,80 +7759,80 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>83</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>142</v>
+        <v>384</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>148</v>
+        <v>385</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7599,13 +7857,13 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>83</v>
+        <v>387</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
@@ -7623,19 +7881,19 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>83</v>
+        <v>389</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
@@ -7644,10 +7902,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>136</v>
+        <v>390</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7658,21 +7916,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>83</v>
+        <v>392</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>83</v>
@@ -7681,22 +7939,22 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>214</v>
+        <v>396</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7721,11 +7979,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -7743,13 +8003,13 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>83</v>
@@ -7761,27 +8021,27 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>218</v>
+        <v>400</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>219</v>
+        <v>401</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>83</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7792,7 +8052,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>83</v>
@@ -7801,22 +8061,22 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>279</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>283</v>
+        <v>408</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -7865,13 +8125,13 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>83</v>
@@ -7883,27 +8143,27 @@
         <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>448</v>
+        <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>286</v>
+        <v>409</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>288</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7929,17 +8189,15 @@
         <v>192</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>83</v>
       </c>
@@ -7963,13 +8221,13 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>295</v>
+        <v>416</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
@@ -7987,7 +8245,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -7996,7 +8254,7 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>105</v>
@@ -8005,38 +8263,38 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>83</v>
+        <v>418</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>136</v>
+        <v>419</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>83</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8051,16 +8309,16 @@
         <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8085,13 +8343,13 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>305</v>
+        <v>426</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
@@ -8109,13 +8367,13 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>83</v>
@@ -8127,27 +8385,27 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>309</v>
+        <v>429</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>310</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8158,7 +8416,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
@@ -8170,20 +8428,18 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>84</v>
+        <v>431</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>83</v>
       </c>
@@ -8231,13 +8487,13 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>83</v>
@@ -8249,18 +8505,2668 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>83</v>
+        <v>435</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>363</v>
+        <v>436</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>364</v>
+        <v>437</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y71" s="2"/>
+      <c r="Z71" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="P75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>83</v>
       </c>
     </row>
